--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3573.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3573.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147168106345002</v>
+        <v>4.961716651916504</v>
       </c>
       <c r="B1">
-        <v>1.741476874327725</v>
+        <v>2.659371376037598</v>
       </c>
       <c r="C1">
-        <v>3.873882385548315</v>
+        <v>1.905655741691589</v>
       </c>
       <c r="D1">
-        <v>4.349151624594394</v>
+        <v>1.742602229118347</v>
       </c>
       <c r="E1">
-        <v>1.162582837568675</v>
+        <v>1.751873254776001</v>
       </c>
     </row>
   </sheetData>
